--- a/Documentation/Product_Backlog.xlsx
+++ b/Documentation/Product_Backlog.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$25</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t xml:space="preserve">PRODUCT BACKLOG REPORT </t>
   </si>
@@ -50,55 +51,43 @@
     <t>COMPLEXITY</t>
   </si>
   <si>
-    <t>SPRINT</t>
+    <t>ESTIMATION</t>
   </si>
   <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>OWNER</t>
+    <t>US01</t>
   </si>
   <si>
     <t>User Management</t>
   </si>
   <si>
-    <t>Register, Login, Auth, Reset, Update, Delete, User Profile</t>
+    <t>As a new user, I want to register with my email and password, so that I can create an account and access the application.</t>
   </si>
   <si>
     <t>HIGH</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>As an existing user, I want to log in with my email and password, so that I can access my account and use the application's features.</t>
+  </si>
+  <si>
     <t>MEDIUM</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Development Team</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Loan Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan Calculator, Interest Rates, Tenure, Minimum eligibility criteria </t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Loan Application Process</t>
-  </si>
-  <si>
-    <t>User filing Loan application, Documents(Identity Proofs, Financial Proofs, Address Proofs) uploading, checking loan status</t>
+    <t>As an admin, I want to manage user accounts, so that I can maintain the integrity of the user database.</t>
   </si>
   <si>
     <t>Complete</t>
@@ -107,49 +96,106 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Credit Check &amp; Approval</t>
-  </si>
-  <si>
-    <t>CIBIL/Experian checks &amp; document verification, providing limit</t>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Ride Matching</t>
+  </si>
+  <si>
+    <t>As a user, I want to find and match with rides that are heading in the same direction, so that I can share a ride and reduce my travel costs.</t>
   </si>
   <si>
     <t>Overdue</t>
   </si>
   <si>
-    <t>Loan Account Management</t>
-  </si>
-  <si>
-    <t>Loan Status, Previous Amount paid, Next Repayment date, etc.</t>
+    <t>As a driver, I want to see potential riders who are on my route, so that I can fill my car and maximize my earnings.</t>
   </si>
   <si>
     <t>On Hold</t>
   </si>
   <si>
-    <t>Payment Processing for Repayments</t>
-  </si>
-  <si>
-    <t>Payment Gateway Integration</t>
-  </si>
-  <si>
-    <t>Customer Support</t>
-  </si>
-  <si>
-    <t>FAQ, Email, Chatbot, Live chat</t>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Fare Calculation</t>
+  </si>
+  <si>
+    <t>As a user, I want to see the estimated fare for my ride before booking, so that I can make an informed decision.</t>
+  </si>
+  <si>
+    <t>As a driver, I want to know how much I will earn from a ride, so that I can plan my trips efficiently.</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Trip Management</t>
+  </si>
+  <si>
+    <t>As a user, I want to create, update, and delete my trips, so that I can manage my travel plans.</t>
+  </si>
+  <si>
+    <t>As a driver, I want to manage my offered rides, so that I can keep track of my ride schedules.</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Payment Service</t>
+  </si>
+  <si>
+    <t>As a user, I want to securely pay for my rides using various payment methods, so that I can complete transactions effortlessly.</t>
+  </si>
+  <si>
+    <t>As a driver, I want to receive payments for my rides directly into my bank account, so that I can get compensated promptly.</t>
+  </si>
+  <si>
+    <t>As a user, I want to view my payment history, so that I can track my expenses.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to manage and resolve payment disputes, so that I can ensure smooth financial operations.</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>As a user, I want an intuitive interface to register, log in, and manage my rides, so that I can navigate the application easily.</t>
+  </si>
+  <si>
+    <t>As a user, I want to track my ride in real-time and receive notifications, so that I stay informed about my ride status.</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>As a DevOps engineer, I want to set up and configure Kubernetes clusters, so that I can deploy microservices efficiently.</t>
+  </si>
+  <si>
+    <t>As a DevOps engineer, I want to deploy microservices to AWS, so that the application is scalable and reliable.</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Additional Services</t>
+  </si>
+  <si>
+    <t>As a user, I want to receive notifications about ride updates, so that I am always informed.</t>
   </si>
   <si>
     <t>LOW</t>
   </si>
   <si>
-    <t>Security and Compliance</t>
-  </si>
-  <si>
-    <t>Authentication, Encryption &amp; other security algorithms we gonna use, etc..</t>
-  </si>
-  <si>
-    <t>Analytics, Alerts, Reporting</t>
-  </si>
-  <si>
-    <t>Repayment Analytics, Already Paid Analytics, Already Paid Analytics, Sending repayment reports to users via email, SMS.</t>
+    <t>As an admin, I want to view user activity reports &amp; reviews, so that I can monitor the application's performance.</t>
+  </si>
+  <si>
+    <t>As a user, I want to leave reviews and ratings for my rides, so that I can share my experience with others.</t>
   </si>
 </sst>
 </file>
@@ -162,19 +208,13 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Angsana New"/>
-      <charset val="222"/>
     </font>
     <font>
       <sz val="16"/>
@@ -610,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -649,48 +689,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -714,24 +713,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -741,10 +723,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -761,49 +752,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,218 +871,194 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,51 +1178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>61595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>986790</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="137795" y="61595"/>
-          <a:ext cx="3020695" cy="806450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,32 +1440,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:M1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="44.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1.77777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
     <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="92.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="9.55555555555556" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.4444444444444" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.77777777777778" customWidth="1"/>
-    <col min="11" max="11" width="2.33333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="3.33333333333333" customWidth="1"/>
+    <col min="9" max="9" width="2.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="2.33333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="12.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="3.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="2:12">
+    <row r="1" ht="30" customHeight="1" spans="2:11">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1597,9 +1475,8 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="2:12">
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="2:11">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1610,587 +1487,822 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" ht="19" customHeight="1" spans="2:9">
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="2:8">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="2:9">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="2:14">
-      <c r="B5" s="7" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="2:8">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:13">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="2:13">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="2:14">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10">
+        <v>40</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11">
+      <c r="K6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="2:13">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="2:13">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="2:11">
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10">
+        <v>15</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:11">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:8">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="10">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:8">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="23" t="s">
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:8">
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10">
+        <v>35</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="2:8">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="2:8">
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="10">
+        <v>40</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="2:8">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="2:8">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="2:8">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="2:8">
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="10">
+        <v>45</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="33" customHeight="1" spans="2:8">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="2:8">
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="10">
         <v>15</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="H21" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="33" customHeight="1" spans="2:8">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="2:14">
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15">
-        <v>40</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="2:14">
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="15">
+    </row>
+    <row r="23" ht="33" customHeight="1" spans="2:8">
+      <c r="B23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="10">
+        <v>25</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="2:12">
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="15">
-        <v>80</v>
-      </c>
-      <c r="H9" s="14" t="s">
+    </row>
+    <row r="24" ht="33" customHeight="1" spans="2:8">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="2:12">
-      <c r="B10" s="12">
-        <v>5</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15">
-        <v>40</v>
-      </c>
-      <c r="H10" s="14" t="s">
+    </row>
+    <row r="25" ht="26.4" spans="2:8">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:9">
-      <c r="B11" s="12">
-        <v>6</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="15">
-        <v>80</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:9">
-      <c r="B12" s="12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="15">
-        <v>60</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="2:9">
-      <c r="B13" s="12">
-        <v>8</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="15">
-        <v>70</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:9">
-      <c r="B14" s="16">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="19">
-        <v>10</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:6">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" ht="22" customHeight="1"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" ht="25.8" spans="2:6">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A1:A1048576"/>
-    <mergeCell ref="B1:L2"/>
+  <mergeCells count="27">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A1:A1048574"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="B1:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="0" priority="74" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="80" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="75" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="81" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="76" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="82" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="0" priority="65" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="71" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="66" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="72" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="67" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="73" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="0" priority="71" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="between" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="between" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="72" operator="between" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="73" operator="between" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="0" priority="57" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="63" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="58" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="64" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="59" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="65" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="2" priority="21" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="20" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="26" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="19" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="25" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="0" priority="51" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="57" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="52" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="58" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="53" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="59" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="2" priority="24" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="30" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="23" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="29" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="22" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="28" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="0" priority="54" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="55" operator="between" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="56" operator="between" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="0" priority="31" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="37" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="32" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="38" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="33" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="39" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="0" priority="28" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="34" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="29" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="35" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="30" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="36" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="0" priority="48" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="54" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="49" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="55" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="50" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="56" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="2" priority="12" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="18" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="17" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="16" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="0" priority="45" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="51" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="46" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="52" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="47" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="53" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="2" priority="18" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="24" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="17" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="23" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="16" operator="between" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="22" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="0" priority="42" operator="between" text="Low">
+  <conditionalFormatting sqref="E14:E25">
+    <cfRule type="containsText" dxfId="0" priority="48" operator="between" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="43" operator="between" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="49" operator="between" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="44" operator="between" text="High">
+    <cfRule type="containsText" dxfId="2" priority="50" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="between" text="High">
+  <conditionalFormatting sqref="F14:F25">
+    <cfRule type="containsText" dxfId="0" priority="13" operator="between" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="14" operator="between" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="15" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="between" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F14)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H14">
-    <cfRule type="containsText" dxfId="3" priority="60" operator="between" text="Overdue">
+  <conditionalFormatting sqref="H6:H25">
+    <cfRule type="containsText" dxfId="3" priority="66" operator="between" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="61" operator="between" text="On Hold">
+    <cfRule type="containsText" dxfId="4" priority="67" operator="between" text="On Hold">
       <formula>NOT(ISERROR(SEARCH("On Hold",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="62" operator="between" text="Complete">
+    <cfRule type="containsText" dxfId="5" priority="68" operator="between" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="63" operator="between" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="69" operator="between" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="64" operator="between" text="Not Started">
+    <cfRule type="containsText" dxfId="7" priority="70" operator="between" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10">
-    <cfRule type="containsText" dxfId="3" priority="37" operator="between" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="38" operator="between" text="On Hold">
-      <formula>NOT(ISERROR(SEARCH("On Hold",L6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="39" operator="between" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="40" operator="between" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",L6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="41" operator="between" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",L6)))</formula>
+  <conditionalFormatting sqref="K6:K10">
+    <cfRule type="containsText" dxfId="3" priority="43" operator="between" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="44" operator="between" text="On Hold">
+      <formula>NOT(ISERROR(SEARCH("On Hold",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="45" operator="between" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="46" operator="between" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="47" operator="between" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N8">
-    <cfRule type="containsText" dxfId="0" priority="34" operator="between" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",N6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="35" operator="between" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",N6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="36" operator="between" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",N6)))</formula>
+  <conditionalFormatting sqref="M6:M8">
+    <cfRule type="containsText" dxfId="0" priority="40" operator="between" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",M6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="41" operator="between" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",M6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="42" operator="between" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",M6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>